--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>576940.2515340802</v>
+        <v>572800.5451201232</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10757661.14532804</v>
+        <v>10754711.24837595</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>203.7474595689332</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>122.4360853739809</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056046</v>
       </c>
       <c r="C3" t="n">
-        <v>92.75802345392746</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>196.900092397165</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.089159801556</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>298.4835274162314</v>
+        <v>203.0747586157676</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -914,7 +914,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100.899643957907</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>54.7026502247401</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>175.6983641828945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>256.4561542453787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1187,16 +1187,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>197.551022767877</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>234.8656199178705</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>319.8444572927814</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.78297506860674</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.1674906539248</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>273.791293857696</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.18862432097</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.72088706084559</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>93.16084888545939</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2096,7 +2096,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135906</v>
       </c>
       <c r="I20" t="n">
         <v>6.593776422875436</v>
@@ -2141,7 +2141,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658098</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277719</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656.7186887953924</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>656.7186887953924</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>271.2775600120601</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596593</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634775</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935488</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1572.340732912004</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2012.380333804333</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238216</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238216</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941734</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941734</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.209397874791</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>656.7186887953924</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021438</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828345</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653869</v>
+        <v>642.3356118811478</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653869</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431051</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.9416385335921</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="C4" t="n">
-        <v>522.9416385335921</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="D4" t="n">
-        <v>367.3085254361069</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="E4" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>746.0536997169488</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>746.0536997169488</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>746.0536997169488</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="W4" t="n">
-        <v>746.0536997169488</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="X4" t="n">
-        <v>746.0536997169488</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="Y4" t="n">
-        <v>522.9416385335921</v>
+        <v>41.50324675633842</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1095.094012311527</v>
+        <v>1537.649747726259</v>
       </c>
       <c r="C5" t="n">
-        <v>793.5954997698793</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>681.4657240221119</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>681.4657240221119</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.277007659574</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O5" t="n">
-        <v>1649.316608551902</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P5" t="n">
-        <v>1997.504100683424</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023271</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.037326457869</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.037326457869</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.037326457869</v>
+        <v>1537.649747726259</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.584721390926</v>
+        <v>1537.649747726259</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.094012311527</v>
+        <v>1537.649747726259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679.7304610040794</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C6" t="n">
-        <v>529.0762305641716</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D6" t="n">
-        <v>529.0762305641716</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>392.6297396750593</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>268.1979335581912</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>148.1381156300556</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653869</v>
+        <v>874.8450714282528</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359451</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637618</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836526</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515168</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886235</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019522</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.841012369533</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.5267954450408</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>685.8960614864299</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>451.8157392694129</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860562</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7499273842031</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7499273842031</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1506.295450060236</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>1135.296415028523</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>935.7499273842031</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>935.7499273842031</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1814.990048232789</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2331.51033082377</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2331.51033082377</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>787.8357555707396</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>504.5053535019172</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1704.529089160266</v>
+        <v>1435.837779556536</v>
       </c>
       <c r="C11" t="n">
-        <v>1383.149862809391</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>800.8136995685218</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>470.0264498312602</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>470.0264498312602</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654572</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654572</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5075,16 +5075,16 @@
         <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579423</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2675.578323579423</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.921993658674</v>
+        <v>2087.611459508386</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.227559725469</v>
+        <v>1764.536250121739</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1606.310991511064</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.3394434530797</v>
+        <v>103.3140520158395</v>
       </c>
       <c r="C13" t="n">
-        <v>242.3394434530797</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>242.3394434530797</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>158.5769064584761</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>936.0428256245434</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915627</v>
+        <v>741.8597555915615</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689342</v>
+        <v>530.3256286689329</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981112</v>
+        <v>368.0415815981098</v>
       </c>
       <c r="Y13" t="n">
-        <v>355.7511869981871</v>
+        <v>216.725795560947</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1405.326329274748</v>
+        <v>1463.714265689662</v>
       </c>
       <c r="C14" t="n">
-        <v>1128.769466792226</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>815.1246131550881</v>
+        <v>828.6901857016483</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2376.375563693905</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2058.719233773156</v>
+        <v>1788.408699622867</v>
       </c>
       <c r="Y14" t="n">
-        <v>1734.024799839951</v>
+        <v>1463.714265689662</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1942.349816659396</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1942.349816659396</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.8305097821774</v>
+        <v>160.5279704919325</v>
       </c>
       <c r="C16" t="n">
-        <v>268.8305097821774</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9936718308861</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>101.2311348362828</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>101.2311348362828</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>101.2311348362828</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>741.8597555915619</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193401</v>
+        <v>368.0415815981103</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821774</v>
+        <v>273.93971403704</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803437</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924324</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5604,13 +5604,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>2122.831274102045</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5908,16 +5908,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
         <v>812.1990332879427</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6014,22 +6014,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>381.858273766342</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.629923393023</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,7 +6148,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
         <v>313.6614512960409</v>
@@ -6157,10 +6157,10 @@
         <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938489</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
         <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375468</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.563044338376</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>2162.083326929358</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
         <v>2423.283548473132</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>186.4798411672776</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>814.2514907939589</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.029462004518</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057097</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766599</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311918</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1382.319247076791</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121372</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2404.684126952454</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>92.03228324525611</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>225.4160927170957</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805528</v>
+        <v>389.5437325908955</v>
       </c>
       <c r="M34" t="n">
-        <v>701.101574345887</v>
+        <v>575.8353109291595</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041664</v>
+        <v>870.6770655353516</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872945</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7017,19 +7017,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7257,16 +7257,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7418,43 +7418,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885599</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072687</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102857</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
         <v>623.4297566485498</v>
@@ -7585,34 +7585,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918815</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161908</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
         <v>2979.29570107106</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655146</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140951</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.7176129102062</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463309972</v>
       </c>
       <c r="L3" t="n">
-        <v>93.7650480576032</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>323.5682631197301</v>
+        <v>300.2068661913378</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,13 +8301,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810477013</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>132.5722416498155</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.4711574522881</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>292.8810966026122</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,22 +9480,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>110.5765941352903</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>538.5873532373481</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>319.0197961262119</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,22 +10188,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>377.2173282296767</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3087888732268</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,7 +10665,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>108.8653421701425</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10905,19 +10905,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11385,10 +11385,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>75.64278518289652</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091616</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>56.64177929133206</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.6351375228663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>44.37414022967079</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>156.290752918919</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H16" t="n">
-        <v>44.12456607254342</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929133182</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-9.500072459022377e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.691091711109038e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>937976.1804820887</v>
+        <v>936472.3114476879</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>937976.1804820887</v>
+        <v>936472.3114476879</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845380.6797403464</v>
+        <v>845380.6797403462</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845380.6797403463</v>
+        <v>845380.6797403462</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>948149.1376182318</v>
+        <v>948149.1376182319</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>948149.1376182317</v>
+        <v>948149.1376182318</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>948149.1376182318</v>
+        <v>948149.1376182321</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="C2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="D2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960493</v>
       </c>
       <c r="E2" t="n">
         <v>334653.9491912411</v>
@@ -26326,13 +26326,13 @@
         <v>334653.9491912411</v>
       </c>
       <c r="G2" t="n">
+        <v>378697.5739960494</v>
+      </c>
+      <c r="H2" t="n">
+        <v>378697.5739960491</v>
+      </c>
+      <c r="I2" t="n">
         <v>378697.5739960492</v>
-      </c>
-      <c r="H2" t="n">
-        <v>378697.5739960492</v>
-      </c>
-      <c r="I2" t="n">
-        <v>378697.5739960493</v>
       </c>
       <c r="J2" t="n">
         <v>378697.5739960494</v>
@@ -26341,16 +26341,16 @@
         <v>378697.5739960495</v>
       </c>
       <c r="L2" t="n">
-        <v>378697.5739960496</v>
+        <v>378697.5739960489</v>
       </c>
       <c r="M2" t="n">
+        <v>378697.5739960492</v>
+      </c>
+      <c r="N2" t="n">
         <v>378697.5739960491</v>
       </c>
-      <c r="N2" t="n">
-        <v>378697.5739960492</v>
-      </c>
       <c r="O2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="P2" t="n">
         <v>378697.5739960492</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539689</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081115</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,7 +26430,7 @@
         <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761035</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91746.28648477148</v>
+        <v>-87094.06686359657</v>
       </c>
       <c r="C6" t="n">
-        <v>90458.6618070845</v>
+        <v>86764.59017045844</v>
       </c>
       <c r="D6" t="n">
-        <v>82714.08110346401</v>
+        <v>74977.7918800723</v>
       </c>
       <c r="E6" t="n">
-        <v>30739.40753283465</v>
+        <v>30529.67598614521</v>
       </c>
       <c r="F6" t="n">
-        <v>142861.9690068792</v>
+        <v>142652.2374601897</v>
       </c>
       <c r="G6" t="n">
-        <v>86737.6021677441</v>
+        <v>86737.60216774425</v>
       </c>
       <c r="H6" t="n">
+        <v>134162.9277044259</v>
+      </c>
+      <c r="I6" t="n">
         <v>134162.927704426</v>
       </c>
-      <c r="I6" t="n">
-        <v>134162.9277044261</v>
-      </c>
       <c r="J6" t="n">
-        <v>-78878.9898928593</v>
+        <v>-72362.70473828597</v>
       </c>
       <c r="K6" t="n">
         <v>127923.1593016433</v>
       </c>
       <c r="L6" t="n">
-        <v>72740.57036702233</v>
+        <v>68691.73315654925</v>
       </c>
       <c r="M6" t="n">
-        <v>91962.09824480291</v>
+        <v>90910.40323361487</v>
       </c>
       <c r="N6" t="n">
+        <v>134162.9277044259</v>
+      </c>
+      <c r="O6" t="n">
+        <v>106395.2336616546</v>
+      </c>
+      <c r="P6" t="n">
         <v>134162.927704426</v>
-      </c>
-      <c r="O6" t="n">
-        <v>106395.2336616548</v>
-      </c>
-      <c r="P6" t="n">
-        <v>134162.9277044261</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924612</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287429</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>194.8102300656876</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>216.2496558295359</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.9595757909471</v>
       </c>
       <c r="C3" t="n">
-        <v>56.38966468158124</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>36.46176891628321</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>9.495244038962085</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>90.76021906586732</v>
+        <v>186.1689878663311</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27698,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>27.88843374682743</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>32.71179201066498</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.657574321493797</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>24.04094380275541</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>188.0070562483967</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,16 +28752,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,19 +28980,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634529177</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.71049010668813</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29220,22 +29220,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>5.636002634529035</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>86.65052755599481</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>30.27223765901221</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159795</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738833194</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031189</v>
       </c>
       <c r="L34" t="n">
-        <v>18.7144686125423</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>128.2979821082779</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30645,10 +30645,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.6360026345302</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163678</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928104</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299766378</v>
       </c>
       <c r="L3" t="n">
-        <v>3.704701200684963</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>179.069564701338</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983894</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>47.20012879564879</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.48300429637414</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>205.7977317832975</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5613130890187</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,16 +36048,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,22 +36200,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>220.7505244816469</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>453.2152403831814</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.258967987775</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>619.793238300906</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>231.9364313068973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215727</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>474.7566830047985</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>284.5297693407878</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765091</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>400.3644648949196</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>22.71185353989341</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371219</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345623</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>23.49322931597588</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>316.4712935610698</v>
+        <v>193.8093140873215</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510934</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724884</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38105,10 +38105,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
